--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -76,11 +76,12 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>hqjnh_046_lhsjb_rank</t>
+    <t>khqd_001_lzphb_rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>act_ty_by_drop_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -98,6 +99,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -110,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,7 +156,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +472,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,17 +513,17 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2">
-        <v>1610409600</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1610985599</v>
+      <c r="E2" s="4">
+        <v>1611014400</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1611590399</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>line|</t>
   </si>
@@ -28,9 +28,6 @@
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
   </si>
   <si>
-    <t>image|道具图片</t>
-  </si>
-  <si>
     <t>rank_type|排行榜类型</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>award|奖励</t>
   </si>
   <si>
-    <t>award_config</t>
-  </si>
-  <si>
     <t>ID|</t>
   </si>
   <si>
@@ -76,11 +70,40 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>khqd_001_lzphb_rank</t>
+    <t>drswn_002_ygbd_rank</t>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_7</t>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path|路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_001_dlphb</t>
+  </si>
+  <si>
+    <t>is_on_off</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,13 +179,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,65 +495,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="58.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="56.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="58.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1611014400</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1611590399</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1611590400</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1612195199</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -541,7 +597,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,13 +609,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -570,7 +626,7 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -581,7 +637,7 @@
         <v>30000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -592,7 +648,7 @@
         <v>10000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -603,7 +659,7 @@
         <v>3000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -614,7 +670,7 @@
         <v>2000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -625,7 +681,7 @@
         <v>1000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -636,7 +692,7 @@
         <v>500</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,9 +70,6 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>drswn_002_ygbd_rank</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>太阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>path|路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,17 +86,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>act_001_dlphb</t>
-  </si>
-  <si>
     <t>is_on_off</t>
   </si>
   <si>
+    <t>cjs_003_bzphb_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>act_00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dlphb</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +179,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,11 +216,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,7 +532,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,7 +541,7 @@
     <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="19.125" customWidth="1"/>
     <col min="8" max="8" width="17.25" style="2" customWidth="1"/>
@@ -522,16 +556,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -545,8 +579,8 @@
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -563,25 +597,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1612224000</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1612799999</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1611590400</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1612195199</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K2" s="3"/>
     </row>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>line|</t>
   </si>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>path|路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,16 +85,19 @@
     <t>is_on_off</t>
   </si>
   <si>
-    <t>cjs_003_bzphb_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>item_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdn_004_jzbd_rank</t>
   </si>
   <si>
     <r>
-      <t>act_00</t>
+      <t>act_003</t>
     </r>
     <r>
       <rPr>
@@ -109,26 +108,43 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>_dlphb</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
+    <t>actp_no_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycs_005_jybb_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyx_006_yxbd_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_004_dlphb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_005_dlphb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10,11,12,13,14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +192,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,10 +229,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -529,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,53 +550,49 @@
     <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="56.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="58.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="56.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="58.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -597,27 +603,91 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3">
+        <v>1612828800</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1613404799</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1612224000</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1612799999</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1613433600</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1614009599</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1614038400</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1614614399</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -628,10 +698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,9 +799,86 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>50000</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>15000</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>500</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>240</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>line|</t>
   </si>
@@ -93,58 +93,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gdn_004_jzbd_rank</t>
-  </si>
-  <si>
-    <r>
-      <t>act_003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dlphb</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_no_cjj_gej_exchange</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ycs_005_jybb_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_drop_act_2</t>
+    <t>act_006_dlphb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nyx_006_yxbd_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_004_dlphb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_005_dlphb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,9,10,11,12,13,14</t>
+    <t>nsj_007_mgbd_rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,19 +177,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -542,7 +508,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,13 +520,13 @@
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="17.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="56.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="58.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,108 +551,72 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1614643200</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1615219199</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1612828800</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1613404799</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1613433600</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1614009599</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1614038400</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1614614399</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="I9" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,86 +729,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>50000</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>15000</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>500</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7">
-        <v>240</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>line|</t>
   </si>
   <si>
+    <t>is_on_off</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>item_key</t>
+  </si>
+  <si>
+    <t>rank_type|排行榜类型</t>
+  </si>
+  <si>
+    <t>s_time|开始时间</t>
+  </si>
+  <si>
+    <t>e_time|结束时间</t>
+  </si>
+  <si>
+    <t>award|奖励</t>
+  </si>
+  <si>
+    <t>path|路径</t>
+  </si>
+  <si>
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
   </si>
   <si>
-    <t>rank_type|排行榜类型</t>
-  </si>
-  <si>
-    <t>s_time|开始时间</t>
-  </si>
-  <si>
-    <t>e_time|结束时间</t>
-  </si>
-  <si>
-    <t>award|奖励</t>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
+    <t>kh315_008_lhphb_rank</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>8,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>act_007_dlphb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>ID|</t>
@@ -49,6 +79,9 @@
     <t>limit|名次范围</t>
   </si>
   <si>
+    <t>condition|额外奖励条件</t>
+  </si>
+  <si>
     <t>1,1,</t>
   </si>
   <si>
@@ -70,46 +103,40 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path|路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_on_off</t>
-  </si>
-  <si>
-    <t>item_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_006_dlphb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nsj_007_mgbd_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>礼盒数达到300万</t>
+  </si>
+  <si>
+    <t>礼盒数达到180万</t>
+  </si>
+  <si>
+    <t>礼盒数达到90万</t>
+  </si>
+  <si>
+    <t>礼盒数达到45万</t>
+  </si>
+  <si>
+    <t>礼盒数达到30万</t>
+  </si>
+  <si>
+    <t>礼盒数达到18万</t>
+  </si>
+  <si>
+    <t>礼盒数达到9万</t>
+  </si>
+  <si>
+    <t>extra_award|额外奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_num|限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,17 +145,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -167,39 +198,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,122 +542,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="56.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="58.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="56.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="58.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1614643200</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1615219199</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I9" s="2" t="s">
-        <v>22</v>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1615248000</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1615823999</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -628,110 +674,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B7" s="3">
+        <v>500</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B8" s="3">
+        <v>240</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>30000</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1800000</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B11" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <v>900000</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>450000</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>300000</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B14" s="3">
+        <v>500</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4">
+        <v>180000</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>500</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+      <c r="B15" s="3">
+        <v>240</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4">
+        <v>90000</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,18 +55,12 @@
     <t>prop_fish_drop_act_0</t>
   </si>
   <si>
-    <t>kh315_008_lhphb_rank</t>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7</t>
   </si>
   <si>
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_007_dlphb</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -101,35 +95,65 @@
   </si>
   <si>
     <t>16,20,</t>
-  </si>
-  <si>
-    <t>礼盒数达到300万</t>
-  </si>
-  <si>
-    <t>礼盒数达到180万</t>
-  </si>
-  <si>
-    <t>礼盒数达到90万</t>
-  </si>
-  <si>
-    <t>礼盒数达到45万</t>
-  </si>
-  <si>
-    <t>礼盒数达到30万</t>
-  </si>
-  <si>
-    <t>礼盒数达到18万</t>
-  </si>
-  <si>
-    <t>礼盒数达到9万</t>
   </si>
   <si>
     <t>extra_award|额外奖励</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>act_00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dlphb</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花数达到300万</t>
+  </si>
+  <si>
+    <t>桃花数达到180万</t>
+  </si>
+  <si>
+    <t>桃花数达到90万</t>
+  </si>
+  <si>
+    <t>桃花数达到45万</t>
+  </si>
+  <si>
+    <t>桃花数达到30万</t>
+  </si>
+  <si>
+    <t>桃花数达到18万</t>
+  </si>
+  <si>
+    <t>桃花数达到9万</t>
+  </si>
+  <si>
+    <t>cnhk_009_thphb_rank</t>
+  </si>
+  <si>
     <t>need_num|限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -148,6 +172,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,6 +185,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +262,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -590,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>8</v>
@@ -613,22 +642,22 @@
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1615852800</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1616428799</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6">
-        <v>1615248000</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1615823999</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>14</v>
+      <c r="J2" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -662,7 +691,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +706,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,19 +720,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -714,7 +743,7 @@
         <v>50000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -725,7 +754,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -736,7 +765,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -747,7 +776,7 @@
         <v>1500</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -758,7 +787,7 @@
         <v>1000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -769,7 +798,7 @@
         <v>500</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -780,7 +809,7 @@
         <v>240</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -791,7 +820,7 @@
         <v>50000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4">
         <v>3000000</v>
@@ -808,7 +837,7 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4">
         <v>1800000</v>
@@ -825,7 +854,7 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4">
         <v>900000</v>
@@ -842,7 +871,7 @@
         <v>1500</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4">
         <v>450000</v>
@@ -859,7 +888,7 @@
         <v>1000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4">
         <v>300000</v>
@@ -876,7 +905,7 @@
         <v>500</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4">
         <v>180000</v>
@@ -893,7 +922,7 @@
         <v>240</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4">
         <v>90000</v>
@@ -905,6 +934,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -98,6 +98,13 @@
   </si>
   <si>
     <t>extra_award|额外奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_num|限制</t>
+  </si>
+  <si>
+    <t>ymkh_010_wxphb_rank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -113,47 +120,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dlphb</t>
+      <t>9_dlphb</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>桃花数达到300万</t>
-  </si>
-  <si>
-    <t>桃花数达到180万</t>
-  </si>
-  <si>
-    <t>桃花数达到90万</t>
-  </si>
-  <si>
-    <t>桃花数达到45万</t>
-  </si>
-  <si>
-    <t>桃花数达到30万</t>
-  </si>
-  <si>
-    <t>桃花数达到18万</t>
-  </si>
-  <si>
-    <t>桃花数达到9万</t>
-  </si>
-  <si>
-    <t>cnhk_009_thphb_rank</t>
-  </si>
-  <si>
-    <t>need_num|限制</t>
+    <t>五星数达到300万</t>
+  </si>
+  <si>
+    <t>五星数达到180万</t>
+  </si>
+  <si>
+    <t>五星数达到90万</t>
+  </si>
+  <si>
+    <t>五星数达到45万</t>
+  </si>
+  <si>
+    <t>五星数达到30万</t>
+  </si>
+  <si>
+    <t>五星数达到18万</t>
+  </si>
+  <si>
+    <t>五星数达到9万</t>
   </si>
 </sst>
 </file>
@@ -224,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,9 +252,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,13 +629,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G2" s="6">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -656,8 +643,8 @@
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>26</v>
+      <c r="J2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -705,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -826,7 +813,7 @@
         <v>3000000</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -843,7 +830,7 @@
         <v>1800000</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -860,7 +847,7 @@
         <v>900000</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -877,7 +864,7 @@
         <v>450000</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -894,7 +881,7 @@
         <v>300000</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -911,7 +898,7 @@
         <v>180000</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -928,7 +915,7 @@
         <v>90000</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -104,46 +104,33 @@
     <t>need_num|限制</t>
   </si>
   <si>
-    <t>ymkh_010_wxphb_rank</t>
+    <t>qmyl_011_hdphb_rank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>act_00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9_dlphb</t>
-    </r>
+    <t>河灯数达到300万</t>
+  </si>
+  <si>
+    <t>河灯数达到180万</t>
+  </si>
+  <si>
+    <t>河灯数达到90万</t>
+  </si>
+  <si>
+    <t>河灯数达到45万</t>
+  </si>
+  <si>
+    <t>河灯数达到30万</t>
+  </si>
+  <si>
+    <t>河灯数达到18万</t>
+  </si>
+  <si>
+    <t>河灯数达到9万</t>
+  </si>
+  <si>
+    <t>act_010_dlphb</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星数达到300万</t>
-  </si>
-  <si>
-    <t>五星数达到180万</t>
-  </si>
-  <si>
-    <t>五星数达到90万</t>
-  </si>
-  <si>
-    <t>五星数达到45万</t>
-  </si>
-  <si>
-    <t>五星数达到30万</t>
-  </si>
-  <si>
-    <t>五星数达到18万</t>
-  </si>
-  <si>
-    <t>五星数达到9万</t>
   </si>
 </sst>
 </file>
@@ -560,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,10 +619,10 @@
         <v>27</v>
       </c>
       <c r="F2" s="6">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="G2" s="6">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -644,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -693,7 +680,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,7 +800,7 @@
         <v>3000000</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -830,7 +817,7 @@
         <v>1800000</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -847,7 +834,7 @@
         <v>900000</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -864,7 +851,7 @@
         <v>450000</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -881,7 +868,7 @@
         <v>300000</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -898,7 +885,7 @@
         <v>180000</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -915,7 +902,7 @@
         <v>90000</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
   </si>
   <si>
-    <t>prop_fish_drop_act_0</t>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7</t>
   </si>
   <si>
@@ -104,33 +101,37 @@
     <t>need_num|限制</t>
   </si>
   <si>
-    <t>qmyl_011_hdphb_rank</t>
+    <t>ltqf_012_fqdr_rank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>河灯数达到300万</t>
-  </si>
-  <si>
-    <t>河灯数达到180万</t>
-  </si>
-  <si>
-    <t>河灯数达到90万</t>
-  </si>
-  <si>
-    <t>河灯数达到45万</t>
-  </si>
-  <si>
-    <t>河灯数达到30万</t>
-  </si>
-  <si>
-    <t>河灯数达到18万</t>
-  </si>
-  <si>
-    <t>河灯数达到9万</t>
-  </si>
-  <si>
-    <t>act_010_dlphb</t>
+    <t>act_011_dlphb</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_grade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>福气数达到10万</t>
+  </si>
+  <si>
+    <t>福气数达到6万</t>
+  </si>
+  <si>
+    <t>福气数达到3万</t>
+  </si>
+  <si>
+    <t>福气数达到1.5万</t>
+  </si>
+  <si>
+    <t>福气数达到1万</t>
+  </si>
+  <si>
+    <t>福气数达到6000</t>
+  </si>
+  <si>
+    <t>福气数达到3000</t>
   </si>
 </sst>
 </file>
@@ -201,7 +202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +240,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -593,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>8</v>
@@ -613,25 +617,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1617667200</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1618243199</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1617062400</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1617638399</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -665,7 +669,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="J9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -679,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="D16:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -694,19 +698,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -714,10 +718,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -728,7 +732,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -739,7 +743,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -747,10 +751,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -758,10 +762,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -769,10 +773,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -780,10 +784,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -791,16 +795,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4">
-        <v>3000000</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
+        <v>100000</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -811,13 +815,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4">
-        <v>1800000</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>60000</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -828,13 +832,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4">
-        <v>900000</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>30000</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -842,16 +846,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4">
-        <v>450000</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>15000</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -859,16 +863,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4">
-        <v>300000</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>10000</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -876,16 +880,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
-        <v>180000</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>6000</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -893,16 +897,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
-        <v>90000</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
+        <v>3000</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>line|</t>
   </si>
@@ -52,6 +52,9 @@
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
   </si>
   <si>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7</t>
   </si>
   <si>
@@ -101,37 +104,44 @@
     <t>need_num|限制</t>
   </si>
   <si>
-    <t>ltqf_012_fqdr_rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_011_dlphb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_grade</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>福气数达到10万</t>
-  </si>
-  <si>
-    <t>福气数达到6万</t>
-  </si>
-  <si>
-    <t>福气数达到3万</t>
-  </si>
-  <si>
-    <t>福气数达到1.5万</t>
-  </si>
-  <si>
-    <t>福气数达到1万</t>
-  </si>
-  <si>
-    <t>福气数达到6000</t>
-  </si>
-  <si>
-    <t>福气数达到3000</t>
+    <t>彩球数达到300万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩球数达到180万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩球数达到90万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩球数达到45万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩球数达到30万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩球数达到18万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩球数达到9万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_012_dlphb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlsyt_013_bsyl_rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_hlsyt_013_bsyl_rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -597,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>8</v>
@@ -617,27 +627,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="G2" s="6">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
@@ -669,7 +681,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -683,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -698,19 +710,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -721,7 +733,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -732,7 +744,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -743,7 +755,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -754,7 +766,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -765,7 +777,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -776,7 +788,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -787,7 +799,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -798,13 +810,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -815,13 +827,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4">
-        <v>60000</v>
+        <v>1800000</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -832,13 +844,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4">
-        <v>30000</v>
+        <v>900000</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -849,13 +861,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -866,13 +878,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -883,13 +895,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -900,18 +912,18 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4">
-        <v>3000</v>
+        <v>90000</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -104,44 +104,37 @@
     <t>need_num|限制</t>
   </si>
   <si>
-    <t>彩球数达到300万</t>
+    <t>wylft_014_ldxfb_rank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>彩球数达到180万</t>
+    <t>act_013_dlphb</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>彩球数达到90万</t>
+    <t>actp_rank_wylft_014_ldxfb_rank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>彩球数达到45万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩球数达到30万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩球数达到18万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩球数达到9万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_012_dlphb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hlsyt_013_bsyl_rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_hlsyt_013_bsyl_rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>铁锤数达到600万</t>
+  </si>
+  <si>
+    <t>铁锤数达到360万</t>
+  </si>
+  <si>
+    <t>铁锤数达到180万</t>
+  </si>
+  <si>
+    <t>铁锤数达到90万</t>
+  </si>
+  <si>
+    <t>铁锤数达到60万</t>
+  </si>
+  <si>
+    <t>铁锤数达到36万</t>
+  </si>
+  <si>
+    <t>铁锤数达到18万</t>
   </si>
 </sst>
 </file>
@@ -561,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,13 +623,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="G2" s="6">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -645,10 +638,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -695,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -730,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -741,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -752,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -763,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -774,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
@@ -785,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -796,7 +789,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -807,16 +800,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="4">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -824,16 +817,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -841,16 +834,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="4">
-        <v>900000</v>
+        <v>1800000</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -858,16 +851,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="4">
-        <v>450000</v>
+        <v>900000</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -875,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="4">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -892,16 +885,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="4">
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -909,16 +902,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="4">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>line|</t>
   </si>
@@ -46,13 +41,22 @@
     <t>award|奖励</t>
   </si>
   <si>
+    <t>extra_award|额外奖励</t>
+  </si>
+  <si>
     <t>path|路径</t>
   </si>
   <si>
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
   </si>
   <si>
-    <t>prop_fish_drop_act_0</t>
+    <t>type_info</t>
+  </si>
+  <si>
+    <t>prop_grade</t>
+  </si>
+  <si>
+    <t>hljnh_015_yxdr_rank</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -61,6 +65,12 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
+    <t>act_014_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_hljnh_015_yxdr_rank</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -73,6 +83,9 @@
     <t>limit|名次范围</t>
   </si>
   <si>
+    <t>need_num|限制</t>
+  </si>
+  <si>
     <t>condition|额外奖励条件</t>
   </si>
   <si>
@@ -97,51 +110,38 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>extra_award|额外奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>need_num|限制</t>
-  </si>
-  <si>
-    <t>wylft_014_ldxfb_rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_013_dlphb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_wylft_014_ldxfb_rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁锤数达到600万</t>
-  </si>
-  <si>
-    <t>铁锤数达到360万</t>
-  </si>
-  <si>
-    <t>铁锤数达到180万</t>
-  </si>
-  <si>
-    <t>铁锤数达到90万</t>
-  </si>
-  <si>
-    <t>铁锤数达到60万</t>
-  </si>
-  <si>
-    <t>铁锤数达到36万</t>
-  </si>
-  <si>
-    <t>铁锤数达到18万</t>
+    <t>财力达到30万</t>
+  </si>
+  <si>
+    <t>财力达到20万</t>
+  </si>
+  <si>
+    <t>财力达到10万</t>
+  </si>
+  <si>
+    <t>财力达到5万</t>
+  </si>
+  <si>
+    <t>财力达到3万</t>
+  </si>
+  <si>
+    <t>财力达到2万</t>
+  </si>
+  <si>
+    <t>财力达到1万</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,28 +150,157 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,7 +309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,8 +319,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -199,13 +514,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -227,39 +784,80 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -308,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +941,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,19 +1144,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
@@ -574,7 +1172,7 @@
     <col min="12" max="12" width="58.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,16 +1198,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:12">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -620,303 +1221,310 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1619481600</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1620662399</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1620662400</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1621267199</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:12">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:12">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="9" spans="10:10">
       <c r="J9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="4" customWidth="1"/>
+    <col min="3" max="4" width="29.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="14.1" customHeight="1" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4">
-        <v>6000000</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3600000</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1800000</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4">
-        <v>900000</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4">
-        <v>600000</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4">
-        <v>360000</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4">
-        <v>180000</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -56,7 +56,7 @@
     <t>prop_grade</t>
   </si>
   <si>
-    <t>hljnh_015_yxdr_rank</t>
+    <t>hlwyt_016_fqdr_rank</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -65,10 +65,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_014_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_hljnh_015_yxdr_rank</t>
+    <t>act_015_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_hlwyt_016_fqdr_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -110,25 +110,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>财力达到30万</t>
-  </si>
-  <si>
-    <t>财力达到20万</t>
-  </si>
-  <si>
-    <t>财力达到10万</t>
-  </si>
-  <si>
-    <t>财力达到5万</t>
-  </si>
-  <si>
-    <t>财力达到3万</t>
-  </si>
-  <si>
-    <t>财力达到2万</t>
-  </si>
-  <si>
-    <t>财力达到1万</t>
+    <t>福气达到10万</t>
+  </si>
+  <si>
+    <t>福气达到6万</t>
+  </si>
+  <si>
+    <t>福气达到3万</t>
+  </si>
+  <si>
+    <t>福气达到15000</t>
+  </si>
+  <si>
+    <t>福气达到1万</t>
+  </si>
+  <si>
+    <t>福气达到6000</t>
+  </si>
+  <si>
+    <t>福气达到3000</t>
   </si>
 </sst>
 </file>
@@ -137,9 +137,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,109 +156,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +195,89 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -278,23 +285,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,13 +321,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,13 +393,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,13 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,31 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,91 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +530,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -541,32 +550,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,17 +581,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1227,10 +1227,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="8">
-        <v>1620662400</v>
+        <v>1621296000</v>
       </c>
       <c r="G2" s="8">
-        <v>1621267199</v>
+        <v>1621871999</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="1">
-        <v>100000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:12">
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1410,7 +1410,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="1">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>31</v>
@@ -1427,7 +1427,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="1">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>32</v>
@@ -1444,7 +1444,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="1">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>33</v>
@@ -1461,7 +1461,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="1">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>34</v>
@@ -1478,7 +1478,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="1">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>35</v>
@@ -1495,7 +1495,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="1">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>36</v>
@@ -1512,7 +1512,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="1">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>37</v>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>line|</t>
   </si>
@@ -29,6 +29,12 @@
     <t>item_key</t>
   </si>
   <si>
+    <t>reward_item_key|基础奖励道具key</t>
+  </si>
+  <si>
+    <t>ext_reward_item_key|额外奖励道具key</t>
+  </si>
+  <si>
     <t>rank_type|排行榜类型</t>
   </si>
   <si>
@@ -38,6 +44,9 @@
     <t>e_time|结束时间</t>
   </si>
   <si>
+    <t>gotoUI|跳转的UI,找客户端确认</t>
+  </si>
+  <si>
     <t>award|奖励</t>
   </si>
   <si>
@@ -53,10 +62,19 @@
     <t>type_info</t>
   </si>
   <si>
-    <t>prop_grade</t>
-  </si>
-  <si>
-    <t>hlwyt_016_fqdr_rank</t>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>ymshf_017_hldr_rank</t>
+  </si>
+  <si>
+    <t>game_Fishing3DHall</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -65,10 +83,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_015_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_hlwyt_016_fqdr_rank</t>
+    <t>act_016_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -110,25 +128,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>福气达到10万</t>
-  </si>
-  <si>
-    <t>福气达到6万</t>
-  </si>
-  <si>
-    <t>福气达到3万</t>
-  </si>
-  <si>
-    <t>福气达到15000</t>
-  </si>
-  <si>
-    <t>福气达到1万</t>
-  </si>
-  <si>
-    <t>福气达到6000</t>
-  </si>
-  <si>
-    <t>福气达到3000</t>
+    <t>欢乐券数达到300万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到180万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到90万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到45万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到30万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到18万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到9万</t>
   </si>
 </sst>
 </file>
@@ -137,17 +155,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -158,21 +193,81 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +281,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -194,84 +296,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,16 +312,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,91 +356,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,91 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +547,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,30 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,6 +587,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,43 +633,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,137 +667,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,26 +820,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -853,6 +899,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1150,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1162,17 +1209,20 @@
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="56.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="58.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="6" max="6" width="42.25" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="56.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="58.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1200,17 +1250,26 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:12">
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1221,64 +1280,79 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1621296000</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1621871999</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:12">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="G2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1621900800</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1622476799</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:12">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="9" spans="10:10">
-      <c r="J9" s="1" t="s">
-        <v>18</v>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="9" spans="13:13">
+      <c r="M9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1368,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1307,19 +1381,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.1" customHeight="1" spans="1:3">
@@ -1330,7 +1404,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1341,7 +1415,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1352,7 +1426,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1363,7 +1437,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1374,7 +1448,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1385,7 +1459,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1396,7 +1470,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1407,13 +1481,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1424,13 +1498,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1">
-        <v>60000</v>
+        <v>1800000</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1441,13 +1515,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
-        <v>30000</v>
+        <v>900000</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1458,13 +1532,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1475,13 +1549,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1492,13 +1566,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1509,13 +1583,13 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
-        <v>3000</v>
+        <v>90000</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:5">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>line|</t>
   </si>
@@ -62,16 +62,16 @@
     <t>type_info</t>
   </si>
   <si>
+    <t>is_have_point|开关1,0</t>
+  </si>
+  <si>
     <t>prop_fish_drop_act_0</t>
   </si>
   <si>
-    <t>prop_web_chip_huafei</t>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>ymshf_017_hldr_rank</t>
+    <t>hlly_018_hlbd_rank</t>
   </si>
   <si>
     <t>game_Fishing3DHall</t>
@@ -83,10 +83,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_016_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_ymshf_017_hldr_rank</t>
+    <t>act_017_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_hlly_018_hlbd_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -128,25 +128,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>欢乐券数达到300万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到180万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到90万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到45万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到30万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到18万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到9万</t>
+    <t>棒棒糖数达到300万</t>
+  </si>
+  <si>
+    <t>棒棒糖数达到180万</t>
+  </si>
+  <si>
+    <t>棒棒糖数达到90万</t>
+  </si>
+  <si>
+    <t>棒棒糖数达到45万</t>
+  </si>
+  <si>
+    <t>棒棒糖数达到30万</t>
+  </si>
+  <si>
+    <t>棒棒糖数达到18万</t>
+  </si>
+  <si>
+    <t>棒棒糖数达到9万</t>
   </si>
 </sst>
 </file>
@@ -154,12 +154,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,12 +171,6 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -191,83 +185,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,24 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,22 +255,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,31 +356,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,139 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,13 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,59 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +597,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -655,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,138 +661,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,15 +817,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,11 +829,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1209,8 +1197,8 @@
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="37.875" customWidth="1"/>
-    <col min="6" max="6" width="42.25" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
     <col min="7" max="7" width="24.75" customWidth="1"/>
     <col min="8" max="8" width="19.125" customWidth="1"/>
     <col min="9" max="9" width="17.25" style="1" customWidth="1"/>
@@ -1220,9 +1208,10 @@
     <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="56.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="58.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1248,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1268,8 +1257,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:16">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1280,75 +1272,78 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="10">
-        <v>1621900800</v>
-      </c>
-      <c r="I2" s="10">
-        <v>1622476799</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="H2" s="8">
+        <v>1622505600</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1623081599</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="1">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="9" spans="13:13">
       <c r="M9" s="1" t="s">
@@ -1368,7 +1363,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1592,8 +1587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="3"/>
+    <row r="16" spans="5:5">
       <c r="E16" s="4"/>
     </row>
   </sheetData>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -65,16 +65,16 @@
     <t>is_have_point|开关1,0</t>
   </si>
   <si>
-    <t>prop_fish_drop_act_0</t>
+    <t>prop_grade</t>
   </si>
   <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>hlly_018_hlbd_rank</t>
-  </si>
-  <si>
-    <t>game_Fishing3DHall</t>
+    <t>zqdw_019_fqdr_rank</t>
+  </si>
+  <si>
+    <t>act_052_qfhl</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -83,10 +83,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_017_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_hlly_018_hlbd_rank</t>
+    <t>act_018_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_zqdw_019_fqdr_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -128,25 +128,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>棒棒糖数达到300万</t>
-  </si>
-  <si>
-    <t>棒棒糖数达到180万</t>
-  </si>
-  <si>
-    <t>棒棒糖数达到90万</t>
-  </si>
-  <si>
-    <t>棒棒糖数达到45万</t>
-  </si>
-  <si>
-    <t>棒棒糖数达到30万</t>
-  </si>
-  <si>
-    <t>棒棒糖数达到18万</t>
-  </si>
-  <si>
-    <t>棒棒糖数达到9万</t>
+    <t>福气值达到10万</t>
+  </si>
+  <si>
+    <t>福气值达到6万</t>
+  </si>
+  <si>
+    <t>福气值达到3万</t>
+  </si>
+  <si>
+    <t>福气值达到15000</t>
+  </si>
+  <si>
+    <t>福气值达到10000</t>
+  </si>
+  <si>
+    <t>福气值达到6000</t>
+  </si>
+  <si>
+    <t>福气值达到3000</t>
   </si>
 </sst>
 </file>
@@ -185,6 +185,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -199,6 +214,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -207,9 +230,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,25 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,75 +286,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,31 +356,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,145 +488,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,21 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,17 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,13 +607,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,6 +630,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,138 +661,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +805,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,7 +832,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1208,7 +1213,7 @@
     <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="56.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="58.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.375" customWidth="1"/>
+    <col min="16" max="16" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1248,7 +1253,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1262,16 +1267,16 @@
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:16">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1280,28 +1285,28 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8">
-        <v>1622505600</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1623081599</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="9">
+        <v>1623110400</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1623686399</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="1">
@@ -1311,39 +1316,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+    <row r="3" s="6" customFormat="1" spans="1:15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="9" spans="13:13">
       <c r="M9" s="1" t="s">
@@ -1363,7 +1368,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1478,10 +1483,10 @@
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1495,10 +1500,10 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1">
-        <v>1800000</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4">
+        <v>60000</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1512,10 +1517,10 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1">
-        <v>900000</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1529,10 +1534,10 @@
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1">
-        <v>450000</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="4">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1546,10 +1551,10 @@
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1">
-        <v>300000</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1563,10 +1568,10 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1">
-        <v>180000</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="4">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1580,15 +1585,15 @@
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1">
-        <v>90000</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="4"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>zqdw_019_fqdr_rank</t>
-  </si>
-  <si>
-    <t>act_052_qfhl</t>
+    <t>fqjkh_020_yxbd_rank</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -83,10 +83,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_018_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_zqdw_019_fqdr_rank</t>
+    <t>act_019_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_fqjkh_020_yxbd_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -128,25 +128,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>福气值达到10万</t>
-  </si>
-  <si>
-    <t>福气值达到6万</t>
-  </si>
-  <si>
-    <t>福气值达到3万</t>
-  </si>
-  <si>
-    <t>福气值达到15000</t>
-  </si>
-  <si>
-    <t>福气值达到10000</t>
-  </si>
-  <si>
-    <t>福气值达到6000</t>
-  </si>
-  <si>
-    <t>福气值达到3000</t>
+    <t>财力达到30万</t>
+  </si>
+  <si>
+    <t>财力达到20万</t>
+  </si>
+  <si>
+    <t>财力达到10万</t>
+  </si>
+  <si>
+    <t>财力达到5万</t>
+  </si>
+  <si>
+    <t>财力达到3万</t>
+  </si>
+  <si>
+    <t>财力达到2万</t>
+  </si>
+  <si>
+    <t>财力达到1万</t>
   </si>
 </sst>
 </file>
@@ -154,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,11 +171,6 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -185,8 +180,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,36 +231,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,38 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -286,6 +307,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -294,36 +323,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +541,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,15 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -579,6 +594,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,30 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,136 +661,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -832,13 +832,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1289,10 +1289,10 @@
         <v>18</v>
       </c>
       <c r="H2" s="9">
-        <v>1623110400</v>
+        <v>1623715200</v>
       </c>
       <c r="I2" s="9">
-        <v>1623686399</v>
+        <v>1624291199</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>19</v>
@@ -1310,7 +1310,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1367,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>line|</t>
   </si>
@@ -65,13 +65,16 @@
     <t>is_have_point|开关1,0</t>
   </si>
   <si>
-    <t>prop_grade</t>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
   </si>
   <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>fqjkh_020_yxbd_rank</t>
+    <t>ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
@@ -83,10 +86,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_019_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_fqjkh_020_yxbd_rank</t>
+    <t>act_016_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -128,25 +131,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>财力达到30万</t>
-  </si>
-  <si>
-    <t>财力达到20万</t>
-  </si>
-  <si>
-    <t>财力达到10万</t>
-  </si>
-  <si>
-    <t>财力达到5万</t>
-  </si>
-  <si>
-    <t>财力达到3万</t>
-  </si>
-  <si>
-    <t>财力达到2万</t>
-  </si>
-  <si>
-    <t>财力达到1万</t>
+    <t>欢乐券数达到300万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到180万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到90万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到45万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到30万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到18万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到9万</t>
   </si>
 </sst>
 </file>
@@ -154,24 +157,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -181,43 +178,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,36 +261,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,8 +283,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -289,11 +297,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,28 +313,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -350,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +538,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,30 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -594,24 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,11 +599,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,49 +646,49 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,99 +697,99 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,8 +814,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,9 +823,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,8 +1186,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1253,7 +1247,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1266,7 +1260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:16">
+    <row r="2" ht="15.75" spans="1:16">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1279,41 +1273,41 @@
       <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="9">
-        <v>1623715200</v>
+        <v>1624320000</v>
       </c>
       <c r="I2" s="9">
-        <v>1624291199</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="14" t="s">
+        <v>1624895999</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="N2" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="O2" s="1">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:15">
@@ -1323,7 +1317,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1340,7 +1334,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1352,7 +1346,7 @@
     </row>
     <row r="9" spans="13:13">
       <c r="M9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1367,8 +1361,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1381,19 +1375,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="14.1" customHeight="1" spans="1:3">
@@ -1404,7 +1398,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1415,7 +1409,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1426,7 +1420,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1437,7 +1431,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1448,7 +1442,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1459,7 +1453,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1470,7 +1464,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1481,13 +1475,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1498,13 +1492,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
-        <v>60000</v>
+        <v>1800000</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1515,13 +1509,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4">
-        <v>30000</v>
+        <v>900000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1532,13 +1526,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4">
-        <v>15000</v>
+        <v>450000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1549,13 +1543,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1566,13 +1560,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4">
-        <v>6000</v>
+        <v>180000</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1583,13 +1577,13 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4">
-        <v>3000</v>
+        <v>90000</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="5:5">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>line|</t>
   </si>
@@ -68,13 +68,10 @@
     <t>prop_fish_drop_act_0</t>
   </si>
   <si>
-    <t>prop_web_chip_huafei</t>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>ymshf_017_hldr_rank</t>
+    <t>qlyx_021_xgphb_rank</t>
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
@@ -86,10 +83,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_016_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_ymshf_017_hldr_rank</t>
+    <t>act_020_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_qlyx_021_xgphb_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -131,25 +128,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>欢乐券数达到300万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到180万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到90万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到45万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到30万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到18万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到9万</t>
+    <t>西瓜数达到300万</t>
+  </si>
+  <si>
+    <t>西瓜数达到180万</t>
+  </si>
+  <si>
+    <t>西瓜数达到90万</t>
+  </si>
+  <si>
+    <t>西瓜数达到45万</t>
+  </si>
+  <si>
+    <t>西瓜数达到30万</t>
+  </si>
+  <si>
+    <t>西瓜数达到18万</t>
+  </si>
+  <si>
+    <t>西瓜数达到9万</t>
   </si>
 </sst>
 </file>
@@ -157,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -184,39 +181,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +248,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -237,40 +256,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,38 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -353,19 +350,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,139 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,65 +540,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,8 +565,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +605,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
@@ -1186,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1273,35 +1270,35 @@
       <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9">
+        <v>1624924800</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1625500799</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="9">
-        <v>1624320000</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1624895999</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="O2" s="1">
         <v>100</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="9" spans="13:13">
       <c r="M9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1361,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1375,19 +1372,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" ht="14.1" customHeight="1" spans="1:3">
@@ -1398,7 +1395,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1409,7 +1406,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1420,7 +1417,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1431,7 +1428,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1442,7 +1439,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1453,7 +1450,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1464,7 +1461,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1475,13 +1472,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>3000000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1492,13 +1489,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4">
         <v>1800000</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1509,13 +1506,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>900000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1526,13 +1523,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4">
         <v>450000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1543,13 +1540,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4">
         <v>300000</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1560,13 +1557,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4">
         <v>180000</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1577,13 +1574,13 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4">
         <v>90000</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="5:5">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -59,22 +59,22 @@
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
   </si>
   <si>
-    <t>type_info</t>
-  </si>
-  <si>
-    <t>is_have_point|开关1,0</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
+    <t>type_info|无加成除1</t>
+  </si>
+  <si>
+    <t>is_have_point|有加成填1,无则填0</t>
+  </si>
+  <si>
+    <t>prop_grade</t>
   </si>
   <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>qlyx_021_xgphb_rank</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
+    <t>yqhp_022_nqdr_rank</t>
+  </si>
+  <si>
+    <t>"nil",</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -83,10 +83,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_020_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_qlyx_021_xgphb_rank</t>
+    <t>act_021_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_yqhp_022_nqdr_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -128,25 +128,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>西瓜数达到300万</t>
-  </si>
-  <si>
-    <t>西瓜数达到180万</t>
-  </si>
-  <si>
-    <t>西瓜数达到90万</t>
-  </si>
-  <si>
-    <t>西瓜数达到45万</t>
-  </si>
-  <si>
-    <t>西瓜数达到30万</t>
-  </si>
-  <si>
-    <t>西瓜数达到18万</t>
-  </si>
-  <si>
-    <t>西瓜数达到9万</t>
+    <t>牛啤值达到100000</t>
+  </si>
+  <si>
+    <t>牛啤值达到60000</t>
+  </si>
+  <si>
+    <t>牛啤值达到30000</t>
+  </si>
+  <si>
+    <t>牛啤值达到15000</t>
+  </si>
+  <si>
+    <t>牛啤值达到10000</t>
+  </si>
+  <si>
+    <t>牛啤值达到6000</t>
+  </si>
+  <si>
+    <t>牛啤值达到3000</t>
   </si>
 </sst>
 </file>
@@ -154,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -175,12 +175,102 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -189,52 +279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,69 +296,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,25 +344,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,25 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,127 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,30 +535,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,13 +562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +601,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -635,6 +624,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
@@ -811,14 +811,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1183,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1267,7 +1267,7 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1276,14 +1276,14 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9">
-        <v>1624924800</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1625500799</v>
+      <c r="H2" s="8">
+        <v>1625529600</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1626105599</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>19</v>
@@ -1301,45 +1301,45 @@
         <v>23</v>
       </c>
       <c r="O2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="9" spans="13:13">
       <c r="M9" s="1" t="s">
@@ -1358,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1475,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="4">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>37</v>
@@ -1492,7 +1492,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="4">
-        <v>1800000</v>
+        <v>60000</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>38</v>
@@ -1509,7 +1509,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="4">
-        <v>900000</v>
+        <v>30000</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>39</v>
@@ -1526,7 +1526,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="4">
-        <v>450000</v>
+        <v>15000</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>40</v>
@@ -1543,7 +1543,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="4">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>41</v>
@@ -1560,7 +1560,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>42</v>
@@ -1577,7 +1577,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="4">
-        <v>90000</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>43</v>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -59,7 +59,7 @@
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
   </si>
   <si>
-    <t>type_info|无加成除1</t>
+    <t>type_info|</t>
   </si>
   <si>
     <t>is_have_point|有加成填1,无则填0</t>
@@ -71,10 +71,10 @@
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>yqhp_022_nqdr_rank</t>
-  </si>
-  <si>
-    <t>"nil",</t>
+    <t>xrkh_023_ygbd_rank</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -83,10 +83,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_021_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_yqhp_022_nqdr_rank</t>
+    <t>act_022_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_xrkh_023_ygbd_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -128,25 +128,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>牛啤值达到100000</t>
-  </si>
-  <si>
-    <t>牛啤值达到60000</t>
-  </si>
-  <si>
-    <t>牛啤值达到30000</t>
-  </si>
-  <si>
-    <t>牛啤值达到15000</t>
-  </si>
-  <si>
-    <t>牛啤值达到10000</t>
-  </si>
-  <si>
-    <t>牛啤值达到6000</t>
-  </si>
-  <si>
-    <t>牛啤值达到3000</t>
+    <t>阳光达到30万</t>
+  </si>
+  <si>
+    <t>阳光达到20万</t>
+  </si>
+  <si>
+    <t>阳光达到10万</t>
+  </si>
+  <si>
+    <t>阳光达到5万</t>
+  </si>
+  <si>
+    <t>阳光达到3万</t>
+  </si>
+  <si>
+    <t>阳光达到2万</t>
+  </si>
+  <si>
+    <t>阳光达到1万</t>
   </si>
 </sst>
 </file>
@@ -156,16 +156,22 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF454545"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -174,6 +180,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -181,6 +211,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -190,6 +221,94 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,126 +323,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,55 +350,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,127 +506,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,78 +547,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -635,6 +575,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,138 +667,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,6 +823,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,13 +838,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,8 +1198,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1244,7 +1259,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1257,7 +1272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:16">
+    <row r="2" ht="16.5" spans="1:16">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1280,66 +1295,66 @@
         <v>18</v>
       </c>
       <c r="H2" s="8">
-        <v>1625529600</v>
+        <v>1626134400</v>
       </c>
       <c r="I2" s="8">
-        <v>1626105599</v>
-      </c>
-      <c r="J2" s="12" t="s">
+        <v>1626710399</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="9" spans="13:13">
       <c r="M9" s="1" t="s">
@@ -1359,7 +1374,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1475,7 +1490,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="4">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>37</v>
@@ -1492,7 +1507,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="4">
-        <v>60000</v>
+        <v>200000</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>38</v>
@@ -1509,7 +1524,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="4">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>39</v>
@@ -1526,7 +1541,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="4">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>40</v>
@@ -1543,7 +1558,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="4">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>41</v>
@@ -1560,7 +1575,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>42</v>
@@ -1577,7 +1592,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="4">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>43</v>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -67,16 +62,19 @@
     <t>type_info|</t>
   </si>
   <si>
-    <t>prop_grade</t>
+    <t>is_have_point|有加成填1,无则填0</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
   </si>
   <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>lxjkh_024_jfphb_rank</t>
-  </si>
-  <si>
-    <t>"nil",</t>
+    <t>ymshf_017_hldr_rank</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -85,10 +83,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_023_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_lxjkh_024_jfphb_rank</t>
+    <t>act_016_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -130,36 +128,38 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>积分数达到300万</t>
-  </si>
-  <si>
-    <t>积分数达到180万</t>
-  </si>
-  <si>
-    <t>积分数达到90万</t>
-  </si>
-  <si>
-    <t>积分数达到45万</t>
-  </si>
-  <si>
-    <t>积分数达到30万</t>
-  </si>
-  <si>
-    <t>积分数达到18万</t>
-  </si>
-  <si>
-    <t>积分数达到9万</t>
-  </si>
-  <si>
-    <t>is_have_point|1代表有小数点，0没有</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>欢乐券数达到300万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到180万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到90万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到45万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到30万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到18万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到9万</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,21 +177,159 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,7 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,12 +350,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -225,14 +549,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,12 +823,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,18 +854,62 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -580,19 +1196,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6:T7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
@@ -612,7 +1228,7 @@
     <col min="16" max="16" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -649,7 +1265,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -659,10 +1275,10 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:16">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -672,101 +1288,102 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8">
-        <v>1626739200</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1627315199</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="H2" s="10">
+        <v>1627344000</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1627919999</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="16" t="s">
         <v>22</v>
       </c>
+      <c r="N2" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" s="1">
+        <v>100</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="9" spans="13:13">
       <c r="M9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
@@ -774,24 +1391,24 @@
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="14.1" customHeight="1" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -799,10 +1416,10 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -810,10 +1427,10 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -821,10 +1438,10 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -832,10 +1449,10 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -843,10 +1460,10 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -854,10 +1471,10 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -865,10 +1482,10 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -876,16 +1493,16 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>3000000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -893,16 +1510,16 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4">
         <v>1800000</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -910,16 +1527,16 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>900000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -927,16 +1544,16 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4">
         <v>450000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -944,16 +1561,16 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4">
         <v>300000</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -961,16 +1578,16 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4">
         <v>180000</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -978,21 +1595,21 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4">
         <v>90000</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
       <c r="E16" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -118,64 +118,51 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>xrkh_023_ygbd_rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光数达到30万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光数达到20万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光数达到10万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光数达到5万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光数达到3万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光数达到2万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>阳光数达到1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_xrkh_023_ygbd_rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_024_dlphb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_2</t>
+    <t>act_025_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxjkh_024_jfphb_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_lxjkh_024_jfphb_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到18万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_grade</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到0.9万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到1.8万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到3万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到4.5万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到9万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到30万</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -638,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -723,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -732,16 +719,16 @@
         <v>16</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="9">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="I2" s="9">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>17</v>
@@ -750,13 +737,13 @@
         <v>18</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -812,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,7 +919,7 @@
         <v>300000</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -946,10 +933,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="4">
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -963,10 +950,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="4">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -980,10 +967,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="4">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1000,7 +987,7 @@
         <v>30000</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1014,10 +1001,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="4">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1031,10 +1018,10 @@
         <v>31</v>
       </c>
       <c r="D15" s="4">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1043,6 +1030,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -118,51 +118,44 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>act_025_dlphb</t>
+    <t>actp_rank_ymshf_017_hldr_rank</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>lxjkh_024_jfphb_rank</t>
+    <t>ymshf_017_hldr_rank</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>actp_rank_lxjkh_024_jfphb_rank</t>
+    <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>积分数达到18万</t>
+    <t>雪糕数达到300万</t>
+  </si>
+  <si>
+    <t>雪糕数达到180万</t>
+  </si>
+  <si>
+    <t>雪糕数达到90万</t>
+  </si>
+  <si>
+    <t>雪糕数达到45万</t>
+  </si>
+  <si>
+    <t>雪糕数达到30万</t>
+  </si>
+  <si>
+    <t>雪糕数达到18万</t>
+  </si>
+  <si>
+    <t>雪糕数达到9万</t>
+  </si>
+  <si>
+    <t>act_026_dlphb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_grade</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到0.9万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到1.8万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到3万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到4.5万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到9万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到30万</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -710,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -722,13 +715,13 @@
         <v>33</v>
       </c>
       <c r="H2" s="9">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="I2" s="9">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>17</v>
@@ -737,16 +730,16 @@
         <v>18</v>
       </c>
       <c r="M2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="O2" s="1">
+        <v>100</v>
+      </c>
+      <c r="P2">
         <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -799,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,10 +909,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>300000</v>
+        <v>3000000</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -933,10 +926,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="4">
-        <v>180000</v>
+        <v>1800000</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -950,10 +943,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="4">
-        <v>90000</v>
+        <v>900000</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -967,10 +960,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="4">
-        <v>45000</v>
+        <v>450000</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -984,10 +977,10 @@
         <v>29</v>
       </c>
       <c r="D13" s="4">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1001,10 +994,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="4">
-        <v>18000</v>
+        <v>180000</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1018,10 +1011,10 @@
         <v>31</v>
       </c>
       <c r="D15" s="4">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>line|</t>
   </si>
@@ -130,32 +130,40 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>雪糕数达到300万</t>
-  </si>
-  <si>
-    <t>雪糕数达到180万</t>
-  </si>
-  <si>
-    <t>雪糕数达到90万</t>
-  </si>
-  <si>
-    <t>雪糕数达到45万</t>
-  </si>
-  <si>
-    <t>雪糕数达到30万</t>
-  </si>
-  <si>
-    <t>雪糕数达到18万</t>
-  </si>
-  <si>
-    <t>雪糕数达到9万</t>
-  </si>
-  <si>
-    <t>act_026_dlphb</t>
+    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"game_Fishing3DHall",</t>
+    <t>act_027_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券数达到300万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到180万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到90万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到45万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到30万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到18万</t>
+  </si>
+  <si>
+    <t>欢乐券数达到9万</t>
+  </si>
+  <si>
+    <t>act_gift_key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hflb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +212,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -281,9 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,6 +321,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -639,10 +654,10 @@
     <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="56.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="58.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.375" customWidth="1"/>
+    <col min="16" max="16" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +694,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -691,8 +706,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Q1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -711,28 +729,28 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="9">
-        <v>1629158400</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1629734399</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="H2" s="18">
+        <v>1629763200</v>
+      </c>
+      <c r="I2" s="18">
+        <v>1630339199</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="O2" s="1">
@@ -741,42 +759,45 @@
       <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="M9" s="1" t="s">
         <v>19</v>
       </c>
@@ -793,7 +814,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G22" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -911,8 +932,8 @@
       <c r="D9" s="4">
         <v>3000000</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>35</v>
+      <c r="E9" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -928,8 +949,8 @@
       <c r="D10" s="4">
         <v>1800000</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>36</v>
+      <c r="E10" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -945,8 +966,8 @@
       <c r="D11" s="4">
         <v>900000</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>37</v>
+      <c r="E11" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -962,8 +983,8 @@
       <c r="D12" s="4">
         <v>450000</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>38</v>
+      <c r="E12" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -979,8 +1000,8 @@
       <c r="D13" s="4">
         <v>300000</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>39</v>
+      <c r="E13" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -996,8 +1017,8 @@
       <c r="D14" s="4">
         <v>180000</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>40</v>
+      <c r="E14" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1013,8 +1034,8 @@
       <c r="D15" s="4">
         <v>90000</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>41</v>
+      <c r="E15" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>line|</t>
   </si>
@@ -118,52 +118,86 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>actp_rank_ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_027_dlphb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券数达到300万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到180万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到90万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到45万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到30万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到18万</t>
-  </si>
-  <si>
-    <t>欢乐券数达到9万</t>
-  </si>
-  <si>
     <t>act_gift_key</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>gift_hflb</t>
+    <t>xrkh_023_ygbd_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>act_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_dlphb</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到30万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到20万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到10万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到5万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到3万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到2万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分数达到1万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_grade</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +302,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +358,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,6 +692,7 @@
     <col min="14" max="14" width="56.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="58.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="34.875" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
@@ -707,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -721,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -730,16 +768,16 @@
         <v>16</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="18">
-        <v>1629763200</v>
+        <v>1631577600</v>
       </c>
       <c r="I2" s="18">
-        <v>1630339199</v>
+        <v>1632153599</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>17</v>
@@ -747,38 +785,68 @@
       <c r="L2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>36</v>
+      <c r="M2" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O2" s="1">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1631577600</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1632153599</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="K3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
@@ -814,7 +882,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G21:G22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,10 +998,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>3000000</v>
+        <v>300000</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -947,10 +1015,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="4">
-        <v>1800000</v>
+        <v>200000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -964,10 +1032,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="4">
-        <v>900000</v>
+        <v>100000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -981,10 +1049,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="4">
-        <v>450000</v>
+        <v>50000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -998,10 +1066,10 @@
         <v>29</v>
       </c>
       <c r="D13" s="4">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1015,10 +1083,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="4">
-        <v>180000</v>
+        <v>20000</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1032,10 +1100,10 @@
         <v>31</v>
       </c>
       <c r="D15" s="4">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>line|</t>
   </si>
@@ -126,23 +126,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>xrkh_023_ygbd_rank</t>
+    <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>act_0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>28</t>
+      <t>act_029</t>
     </r>
     <r>
       <rPr>
@@ -157,47 +146,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>积分数达到30万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到20万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到10万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到5万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到3万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到2万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分数达到1万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_grade</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
+    <t>actp_rank_ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼数达到200万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼数达到120万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼数达到60万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼数达到30万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼数达到20万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼数达到12万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼数达到6万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_khlb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -670,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -768,13 +753,13 @@
         <v>16</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H2" s="18">
-        <v>1631577600</v>
+        <v>1632182400</v>
       </c>
       <c r="I2" s="18">
-        <v>1632153599</v>
+        <v>1632758399</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>32</v>
@@ -789,64 +774,34 @@
         <v>35</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1631577600</v>
-      </c>
-      <c r="I3" s="18">
-        <v>1632153599</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="1">
-        <v>100000</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
@@ -882,7 +837,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -998,10 +953,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>300000</v>
+        <v>2000000</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1015,10 +970,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="4">
-        <v>200000</v>
+        <v>1200000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1032,10 +987,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="4">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1049,10 +1004,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="4">
-        <v>50000</v>
+        <v>300000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1066,10 +1021,10 @@
         <v>29</v>
       </c>
       <c r="D13" s="4">
-        <v>30000</v>
+        <v>200000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1083,10 +1038,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="4">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1100,10 +1055,10 @@
         <v>31</v>
       </c>
       <c r="D15" s="4">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>line|</t>
   </si>
@@ -126,12 +126,238 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>act_029</t>
+    <t>prop_grade</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxjkh_024_jfphb_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福气值达到6万</t>
+  </si>
+  <si>
+    <t>福气值达到3万</t>
+  </si>
+  <si>
+    <t>福气值达到1.5万</t>
+  </si>
+  <si>
+    <t>福气值达到8000</t>
+  </si>
+  <si>
+    <t>福气值达到3000</t>
+  </si>
+  <si>
+    <t>福气值达到1500</t>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ward_img</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ward_txt</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ct_name</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈福排行榜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gift_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60000福利券",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15000福利券",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000福利券",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"800福利券",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"800福利券",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"400福利券",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200福利券",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>act_030</t>
     </r>
     <r>
       <rPr>
@@ -143,46 +369,6 @@
       </rPr>
       <t>_dlphb</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>月饼数达到200万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>月饼数达到120万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>月饼数达到60万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>月饼数达到30万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>月饼数达到20万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>月饼数达到12万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>月饼数达到6万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_khlb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +473,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +533,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -653,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,23 +859,23 @@
     <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="35.875" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="17.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="39.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="56.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="58.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.875" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="4" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="35.875" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="56.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="58.5" style="1" customWidth="1"/>
+    <col min="17" max="18" width="34.875" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,47 +888,53 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -746,82 +947,84 @@
       <c r="D2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
+      <c r="E2" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="18">
-        <v>1632182400</v>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="I2" s="18">
-        <v>1632758399</v>
-      </c>
-      <c r="J2" s="13" t="s">
+        <v>1633996800</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1634572799</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="1">
-        <v>100</v>
-      </c>
-      <c r="P2">
+      <c r="N2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="9"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="9"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="9"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="M9" s="1" t="s">
+      <c r="P4" s="9"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -834,235 +1037,297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="29.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="2" max="4" width="32.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="29.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>40000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>15000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>5000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>2200</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>1200</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>600</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>300</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4">
         <v>60000</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2000000</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G9" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>15000</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="4">
+        <v>30000</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4">
-        <v>600000</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="4">
+        <v>15000</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>800</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4">
-        <v>300000</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>800</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4">
-        <v>200000</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="4">
+        <v>8000</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>400</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="4">
-        <v>120000</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>200</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="4">
-        <v>60000</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E16" s="5"/>
+      <c r="F15" s="4">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>line|</t>
   </si>
@@ -124,32 +124,6 @@
   <si>
     <t>act_gift_key</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_grade</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lxjkh_024_jfphb_rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>福气值达到6万</t>
-  </si>
-  <si>
-    <t>福气值达到3万</t>
-  </si>
-  <si>
-    <t>福气值达到1.5万</t>
-  </si>
-  <si>
-    <t>福气值达到8000</t>
-  </si>
-  <si>
-    <t>福气值达到3000</t>
-  </si>
-  <si>
-    <t>福气值达到1500</t>
   </si>
   <si>
     <t>60000,</t>
@@ -309,10 +283,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>祈福排行榜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>act_gift_name</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -352,23 +322,67 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>act_031_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到200万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到120万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到60万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到30万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到20万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到12万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到6万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_drop_act_nor</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>act_030</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dlphb</t>
-    </r>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_hflb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐达人</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -850,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -928,7 +942,7 @@
         <v>15</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>33</v>
@@ -945,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -957,13 +971,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I2" s="18">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J2" s="18">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>32</v>
@@ -975,35 +989,82 @@
         <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="1">
+      <c r="E3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1634601600</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1635177599</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="R3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
@@ -1040,7 +1101,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1059,10 +1120,10 @@
         <v>21</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>22</v>
@@ -1170,22 +1231,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="4">
-        <v>60000</v>
+        <v>2000000</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1193,22 +1254,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="4">
-        <v>30000</v>
+        <v>1200000</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1216,22 +1277,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="4">
-        <v>15000</v>
+        <v>600000</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1239,22 +1300,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="4">
-        <v>8000</v>
+        <v>300000</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1262,22 +1323,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="4">
-        <v>8000</v>
+        <v>200000</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1285,22 +1346,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="4">
-        <v>3000</v>
+        <v>120000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1308,22 +1369,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="4">
-        <v>1500</v>
+        <v>60000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -322,42 +322,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_031_dlphb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ymshf_017_hldr_rank</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐券达到200万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到120万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到60万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到30万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到20万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到12万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到6万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -374,15 +342,40 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>话费礼包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_hflb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐达人</t>
+    <t>狂欢排行榜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜达到200万</t>
+  </si>
+  <si>
+    <t>南瓜达到120万</t>
+  </si>
+  <si>
+    <t>南瓜达到60万</t>
+  </si>
+  <si>
+    <t>南瓜达到30万</t>
+  </si>
+  <si>
+    <t>南瓜达到20万</t>
+  </si>
+  <si>
+    <t>南瓜达到12万</t>
+  </si>
+  <si>
+    <t>南瓜达到6万</t>
+  </si>
+  <si>
+    <t>act_032_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_khlb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -864,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -971,13 +964,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="18">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J2" s="18">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>32</v>
@@ -989,10 +982,10 @@
         <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P2" s="1">
         <v>100</v>
@@ -1001,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1018,10 +1011,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -1030,16 +1023,16 @@
         <v>16</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="18">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J3" s="18">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>17</v>
@@ -1048,10 +1041,10 @@
         <v>18</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="P3" s="1">
         <v>100</v>
@@ -1060,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1101,7 +1094,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1246,7 +1239,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1269,7 +1262,7 @@
         <v>1200000</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1292,7 +1285,7 @@
         <v>600000</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1315,7 +1308,7 @@
         <v>300000</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1338,7 +1331,7 @@
         <v>200000</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1361,7 +1354,7 @@
         <v>120000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1384,7 +1377,7 @@
         <v>60000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -342,40 +342,40 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>狂欢排行榜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂欢礼包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>南瓜达到200万</t>
-  </si>
-  <si>
-    <t>南瓜达到120万</t>
-  </si>
-  <si>
-    <t>南瓜达到60万</t>
-  </si>
-  <si>
-    <t>南瓜达到30万</t>
-  </si>
-  <si>
-    <t>南瓜达到20万</t>
-  </si>
-  <si>
-    <t>南瓜达到12万</t>
-  </si>
-  <si>
-    <t>南瓜达到6万</t>
-  </si>
-  <si>
-    <t>act_032_dlphb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>gift_khlb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩排行榜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡腿达到200万</t>
+  </si>
+  <si>
+    <t>火鸡腿达到120万</t>
+  </si>
+  <si>
+    <t>火鸡腿达到60万</t>
+  </si>
+  <si>
+    <t>火鸡腿达到30万</t>
+  </si>
+  <si>
+    <t>火鸡腿达到20万</t>
+  </si>
+  <si>
+    <t>火鸡腿达到12万</t>
+  </si>
+  <si>
+    <t>火鸡腿达到6万</t>
+  </si>
+  <si>
+    <t>act_033_dlphb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -955,7 +955,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -967,10 +967,10 @@
         <v>54</v>
       </c>
       <c r="I2" s="18">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J2" s="18">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>32</v>
@@ -982,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>56</v>
@@ -997,7 +997,7 @@
         <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1014,7 +1014,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -1026,10 +1026,10 @@
         <v>54</v>
       </c>
       <c r="I3" s="18">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J3" s="18">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>57</v>
@@ -1041,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>58</v>
@@ -1056,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G9" sqref="G9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1239,7 +1239,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1262,7 +1262,7 @@
         <v>1200000</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1285,7 +1285,7 @@
         <v>600000</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1308,7 +1308,7 @@
         <v>300000</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1331,7 +1331,7 @@
         <v>200000</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1354,7 +1354,7 @@
         <v>120000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1377,7 +1377,7 @@
         <v>60000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -346,37 +346,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩排行榜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡腿达到200万</t>
-  </si>
-  <si>
-    <t>火鸡腿达到120万</t>
-  </si>
-  <si>
-    <t>火鸡腿达到60万</t>
-  </si>
-  <si>
-    <t>火鸡腿达到30万</t>
-  </si>
-  <si>
-    <t>火鸡腿达到20万</t>
-  </si>
-  <si>
-    <t>火鸡腿达到12万</t>
-  </si>
-  <si>
-    <t>火鸡腿达到6万</t>
-  </si>
-  <si>
-    <t>act_033_dlphb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>雪球排行榜</t>
+  </si>
+  <si>
+    <t>加成礼包</t>
+  </si>
+  <si>
+    <t>act_034_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪球达到200万</t>
+  </si>
+  <si>
+    <t>雪球达到120万</t>
+  </si>
+  <si>
+    <t>雪球达到60万</t>
+  </si>
+  <si>
+    <t>雪球达到30万</t>
+  </si>
+  <si>
+    <t>雪球达到20万</t>
+  </si>
+  <si>
+    <t>雪球达到12万</t>
+  </si>
+  <si>
+    <t>雪球达到6万</t>
   </si>
 </sst>
 </file>
@@ -857,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -955,7 +953,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -967,10 +965,10 @@
         <v>54</v>
       </c>
       <c r="I2" s="18">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J2" s="18">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>32</v>
@@ -982,7 +980,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>56</v>
@@ -994,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S2" t="s">
         <v>59</v>
@@ -1014,7 +1012,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -1026,10 +1024,10 @@
         <v>54</v>
       </c>
       <c r="I3" s="18">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J3" s="18">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>57</v>
@@ -1041,7 +1039,7 @@
         <v>18</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>58</v>
@@ -1053,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
         <v>59</v>
@@ -1093,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1239,7 +1237,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1262,7 +1260,7 @@
         <v>1200000</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1285,7 +1283,7 @@
         <v>600000</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1308,7 +1306,7 @@
         <v>300000</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1331,7 +1329,7 @@
         <v>200000</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1354,7 +1352,7 @@
         <v>120000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1377,7 +1375,7 @@
         <v>60000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>line|</t>
   </si>
@@ -346,35 +346,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>雪球排行榜</t>
-  </si>
-  <si>
     <t>加成礼包</t>
   </si>
   <si>
-    <t>act_034_dlphb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪球达到200万</t>
-  </si>
-  <si>
-    <t>雪球达到120万</t>
-  </si>
-  <si>
-    <t>雪球达到60万</t>
-  </si>
-  <si>
-    <t>雪球达到30万</t>
-  </si>
-  <si>
-    <t>雪球达到20万</t>
-  </si>
-  <si>
-    <t>雪球达到12万</t>
-  </si>
-  <si>
-    <t>雪球达到6万</t>
+    <t>灯笼达到200万</t>
+  </si>
+  <si>
+    <t>灯笼达到120万</t>
+  </si>
+  <si>
+    <t>灯笼达到60万</t>
+  </si>
+  <si>
+    <t>灯笼达到30万</t>
+  </si>
+  <si>
+    <t>灯笼达到20万</t>
+  </si>
+  <si>
+    <t>灯笼达到12万</t>
+  </si>
+  <si>
+    <t>灯笼达到6万</t>
+  </si>
+  <si>
+    <t>灯笼排行榜</t>
+  </si>
+  <si>
+    <t>act_035_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_035_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -855,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -953,7 +957,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -965,10 +969,10 @@
         <v>54</v>
       </c>
       <c r="I2" s="18">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J2" s="18">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>32</v>
@@ -980,7 +984,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>56</v>
@@ -992,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S2" t="s">
         <v>59</v>
@@ -1012,7 +1016,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -1024,10 +1028,10 @@
         <v>54</v>
       </c>
       <c r="I3" s="18">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J3" s="18">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>57</v>
@@ -1039,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>58</v>
@@ -1051,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
         <v>59</v>
@@ -1091,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1237,7 +1241,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1260,7 +1264,7 @@
         <v>1200000</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1283,7 +1287,7 @@
         <v>600000</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1306,7 +1310,7 @@
         <v>300000</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1329,7 +1333,7 @@
         <v>200000</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1352,7 +1356,7 @@
         <v>120000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1375,7 +1379,7 @@
         <v>60000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">

--- a/config_Release/act_ty_phb_config.xlsx
+++ b/config_Release/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>line|</t>
   </si>
@@ -342,42 +342,40 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>gift_khlb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>加成礼包</t>
-  </si>
-  <si>
-    <t>灯笼达到200万</t>
-  </si>
-  <si>
-    <t>灯笼达到120万</t>
-  </si>
-  <si>
-    <t>灯笼达到60万</t>
-  </si>
-  <si>
-    <t>灯笼达到30万</t>
-  </si>
-  <si>
-    <t>灯笼达到20万</t>
-  </si>
-  <si>
-    <t>灯笼达到12万</t>
-  </si>
-  <si>
-    <t>灯笼达到6万</t>
-  </si>
-  <si>
-    <t>灯笼排行榜</t>
-  </si>
-  <si>
-    <t>act_035_dlphb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_035_dlphb</t>
+    <t>欢乐达人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到200万</t>
+  </si>
+  <si>
+    <t>欢乐券达到120万</t>
+  </si>
+  <si>
+    <t>欢乐券达到60万</t>
+  </si>
+  <si>
+    <t>欢乐券达到30万</t>
+  </si>
+  <si>
+    <t>欢乐券达到20万</t>
+  </si>
+  <si>
+    <t>欢乐券达到12万</t>
+  </si>
+  <si>
+    <t>欢乐券达到6万</t>
+  </si>
+  <si>
+    <t>gift_hflb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +858,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -957,7 +955,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -969,10 +967,10 @@
         <v>54</v>
       </c>
       <c r="I2" s="18">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J2" s="18">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>32</v>
@@ -984,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>56</v>
@@ -996,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1016,7 +1014,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -1028,10 +1026,10 @@
         <v>54</v>
       </c>
       <c r="I3" s="18">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J3" s="18">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>57</v>
@@ -1043,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>58</v>
@@ -1055,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1096,7 +1094,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
